--- a/PACK PPL MPE IMPORT.xlsx
+++ b/PACK PPL MPE IMPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NGUYENVU\REPORT\QUY CÁCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1809197-1301-4746-9ACF-9F5C958981E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB318C7A-2ED5-4377-B693-2726422014B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="13500" xr2:uid="{DFA824CF-47DC-4F15-BB83-C9CEEF4FA7CB}"/>
+    <workbookView xWindow="945" yWindow="15" windowWidth="23040" windowHeight="13470" xr2:uid="{DFA824CF-47DC-4F15-BB83-C9CEEF4FA7CB}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORT" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6624" uniqueCount="3295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6860" uniqueCount="3358">
   <si>
     <t>PACKKEY</t>
   </si>
@@ -9921,6 +9921,195 @@
   </si>
   <si>
     <t>UPDATE NGAY 21.01.2026</t>
+  </si>
+  <si>
+    <t>SM_DLT-7/3C_005</t>
+  </si>
+  <si>
+    <t>SM_DLT-9/3C_005</t>
+  </si>
+  <si>
+    <t>SM_DLV-9/3C_005</t>
+  </si>
+  <si>
+    <t>SM_DLB-9/3C_005</t>
+  </si>
+  <si>
+    <t>UPDATE NGAY 26.01.2026</t>
+  </si>
+  <si>
+    <t>SM_FLD2-10T_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-10V_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-20T_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-20V_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-30T_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-30V_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-50T_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-50V_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-100T_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-100V_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-150T_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-150V_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-200T_101</t>
+  </si>
+  <si>
+    <t>SM_FLD2-200V_101</t>
+  </si>
+  <si>
+    <t>SM_RPL-6SV_101</t>
+  </si>
+  <si>
+    <t>SM_DLT-7T_006</t>
+  </si>
+  <si>
+    <t>SM_DLT-7N_006</t>
+  </si>
+  <si>
+    <t>SM_DLT-9V_006</t>
+  </si>
+  <si>
+    <t>SM_DLT-9/3C_006</t>
+  </si>
+  <si>
+    <t>SM_DLV-9V_006</t>
+  </si>
+  <si>
+    <t>SM_DLV-9/3C_006</t>
+  </si>
+  <si>
+    <t>SM_DLV-12/3C_006</t>
+  </si>
+  <si>
+    <t>SM_DLB-9T_006</t>
+  </si>
+  <si>
+    <t>SM_DLB-9/3C_006</t>
+  </si>
+  <si>
+    <t>update 27.01.2026</t>
+  </si>
+  <si>
+    <t>SM_DLTL-9T_006</t>
+  </si>
+  <si>
+    <t>SM_DLTL-9N_006</t>
+  </si>
+  <si>
+    <t>SM_DLT-12T_006</t>
+  </si>
+  <si>
+    <t>SM_DLT-12N_006</t>
+  </si>
+  <si>
+    <t>SM_DLT-12V_006</t>
+  </si>
+  <si>
+    <t>SM_DLT-12/3C_006</t>
+  </si>
+  <si>
+    <t>SM_DLB-12T_006</t>
+  </si>
+  <si>
+    <t>SM_DLB-12N_006</t>
+  </si>
+  <si>
+    <t>SM_BHR-12_001</t>
+  </si>
+  <si>
+    <t>SM_BHR-18_001</t>
+  </si>
+  <si>
+    <t>update 04.02.2026</t>
+  </si>
+  <si>
+    <t>SM_RPL-7/3C/G_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-9S/3C/G_003</t>
+  </si>
+  <si>
+    <t>SM_RPL-9/3C/G_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-12S/3C/G_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-7/3C/S_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-9S/3C/S_003</t>
+  </si>
+  <si>
+    <t>SM_RPL-9/3C/S_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-12S/3C/S_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-9ST/G_003</t>
+  </si>
+  <si>
+    <t>SM_RPL-9T/G_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-12ST/G_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-7T/S_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-9T/S_002</t>
+  </si>
+  <si>
+    <t>SM_RPL-12ST/S_002</t>
+  </si>
+  <si>
+    <t>UPDATE 05.02.2026</t>
+  </si>
+  <si>
+    <t>SM_MAFC2-130_001</t>
+  </si>
+  <si>
+    <t>SM_MAFC2-250_001</t>
+  </si>
+  <si>
+    <t>SM_MAF2-150_001</t>
+  </si>
+  <si>
+    <t>SM_MAF2-200_001</t>
+  </si>
+  <si>
+    <t>SM_DLV-12T_006</t>
+  </si>
+  <si>
+    <t>SM_DLB-12/3C_006</t>
+  </si>
+  <si>
+    <t>SM_DLTL-9V_006</t>
   </si>
 </sst>
 </file>
@@ -10485,13 +10674,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6DB214-F711-4DED-AA93-AE62482CE4B1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G3240"/>
+  <dimension ref="A1:G3299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3241" sqref="C3241"/>
+      <selection pane="bottomRight" activeCell="C3298" sqref="C3298:G3299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68467,6 +68656,1390 @@
         <v>3294</v>
       </c>
       <c r="G3240" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3241" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B3241" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3241" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3241" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3241">
+        <v>50</v>
+      </c>
+      <c r="F3241" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3241" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3242" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B3242" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3242" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3242" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3242">
+        <v>50</v>
+      </c>
+      <c r="F3242" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3242" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3243" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B3243" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3243" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3243" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3243">
+        <v>50</v>
+      </c>
+      <c r="F3243" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3243" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3244" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B3244" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3244" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3244" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3244">
+        <v>50</v>
+      </c>
+      <c r="F3244" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3244" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3245" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B3245" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3245">
+        <v>8</v>
+      </c>
+      <c r="D3245" s="10">
+        <v>480</v>
+      </c>
+      <c r="E3245">
+        <f>+D3245/C3245</f>
+        <v>60</v>
+      </c>
+      <c r="F3245" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3245" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3246" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B3246" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3246">
+        <v>8</v>
+      </c>
+      <c r="D3246" s="10">
+        <v>480</v>
+      </c>
+      <c r="E3246">
+        <f>+D3246/C3246</f>
+        <v>60</v>
+      </c>
+      <c r="F3246" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3246" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3247" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B3247" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3247">
+        <v>40</v>
+      </c>
+      <c r="D3247" s="10">
+        <v>3600</v>
+      </c>
+      <c r="E3247">
+        <v>90</v>
+      </c>
+      <c r="F3247" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3247" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3248" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B3248" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3248">
+        <v>40</v>
+      </c>
+      <c r="D3248" s="10">
+        <v>3600</v>
+      </c>
+      <c r="E3248">
+        <v>90</v>
+      </c>
+      <c r="F3248" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3248" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3249" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B3249" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3249">
+        <v>5</v>
+      </c>
+      <c r="D3249" s="10">
+        <v>300</v>
+      </c>
+      <c r="E3249">
+        <v>60</v>
+      </c>
+      <c r="F3249" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3249" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3250" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B3250" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3250">
+        <v>5</v>
+      </c>
+      <c r="D3250" s="10">
+        <v>300</v>
+      </c>
+      <c r="E3250">
+        <v>60</v>
+      </c>
+      <c r="F3250" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3250" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3251" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B3251" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3251">
+        <v>5</v>
+      </c>
+      <c r="D3251" s="10">
+        <v>240</v>
+      </c>
+      <c r="E3251">
+        <v>48</v>
+      </c>
+      <c r="F3251" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3251" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3252" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B3252" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3252">
+        <v>5</v>
+      </c>
+      <c r="D3252" s="10">
+        <v>240</v>
+      </c>
+      <c r="E3252">
+        <v>48</v>
+      </c>
+      <c r="F3252" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3252" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3253" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B3253" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3253">
+        <v>30</v>
+      </c>
+      <c r="D3253" s="10">
+        <v>2100</v>
+      </c>
+      <c r="E3253">
+        <v>70</v>
+      </c>
+      <c r="F3253" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3253" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3254" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B3254" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3254">
+        <v>30</v>
+      </c>
+      <c r="D3254" s="10">
+        <v>2100</v>
+      </c>
+      <c r="E3254">
+        <v>70</v>
+      </c>
+      <c r="F3254" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3254" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3255" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B3255" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3255">
+        <v>20</v>
+      </c>
+      <c r="D3255" s="10">
+        <v>1260</v>
+      </c>
+      <c r="E3255">
+        <v>63</v>
+      </c>
+      <c r="F3255" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3255" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3256" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B3256" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3256">
+        <v>20</v>
+      </c>
+      <c r="D3256" s="10">
+        <v>1260</v>
+      </c>
+      <c r="E3256">
+        <v>63</v>
+      </c>
+      <c r="F3256" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3256" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3257" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B3257" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3257">
+        <v>15</v>
+      </c>
+      <c r="D3257" s="10">
+        <v>600</v>
+      </c>
+      <c r="E3257">
+        <v>40</v>
+      </c>
+      <c r="F3257" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3257" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3258" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B3258" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3258">
+        <v>15</v>
+      </c>
+      <c r="D3258" s="10">
+        <v>600</v>
+      </c>
+      <c r="E3258">
+        <v>40</v>
+      </c>
+      <c r="F3258" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3258" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3259" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B3259" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3259">
+        <v>60</v>
+      </c>
+      <c r="D3259" s="10">
+        <v>1800</v>
+      </c>
+      <c r="E3259">
+        <v>30</v>
+      </c>
+      <c r="F3259" s="10" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G3259" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3260" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B3260" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3260">
+        <v>30</v>
+      </c>
+      <c r="D3260" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3260">
+        <v>50</v>
+      </c>
+      <c r="F3260" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3260" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3261" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B3261" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3261">
+        <v>30</v>
+      </c>
+      <c r="D3261" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3261">
+        <v>50</v>
+      </c>
+      <c r="F3261" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3261" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3262" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B3262" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3262">
+        <v>30</v>
+      </c>
+      <c r="D3262" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3262">
+        <v>50</v>
+      </c>
+      <c r="F3262" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3262" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3263" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B3263" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3263">
+        <v>30</v>
+      </c>
+      <c r="D3263" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3263">
+        <v>50</v>
+      </c>
+      <c r="F3263" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3263" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3264" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B3264" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3264">
+        <v>30</v>
+      </c>
+      <c r="D3264" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3264">
+        <v>50</v>
+      </c>
+      <c r="F3264" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3264" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3265" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B3265" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3265">
+        <v>30</v>
+      </c>
+      <c r="D3265" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3265">
+        <v>50</v>
+      </c>
+      <c r="F3265" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3265" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3266" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B3266" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3266">
+        <v>20</v>
+      </c>
+      <c r="D3266" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3266">
+        <v>52</v>
+      </c>
+      <c r="F3266" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3266" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3267" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B3267" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3267">
+        <v>30</v>
+      </c>
+      <c r="D3267" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3267">
+        <v>50</v>
+      </c>
+      <c r="F3267" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3267" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3268" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B3268" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3268">
+        <v>30</v>
+      </c>
+      <c r="D3268" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E3268">
+        <v>50</v>
+      </c>
+      <c r="F3268" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3268" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3269" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B3269" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3269">
+        <v>20</v>
+      </c>
+      <c r="D3269" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3269">
+        <v>52</v>
+      </c>
+      <c r="F3269" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3269" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3270" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B3270" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3270">
+        <v>20</v>
+      </c>
+      <c r="D3270" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3270">
+        <v>52</v>
+      </c>
+      <c r="F3270" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3270" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3271" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B3271" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3271">
+        <v>20</v>
+      </c>
+      <c r="D3271" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3271">
+        <v>52</v>
+      </c>
+      <c r="F3271" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3271" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3272" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B3272" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3272">
+        <v>20</v>
+      </c>
+      <c r="D3272" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3272">
+        <v>52</v>
+      </c>
+      <c r="F3272" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3272" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3273" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B3273" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3273">
+        <v>20</v>
+      </c>
+      <c r="D3273" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3273">
+        <v>52</v>
+      </c>
+      <c r="F3273" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3273" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3274" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B3274" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3274">
+        <v>20</v>
+      </c>
+      <c r="D3274" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3274">
+        <v>52</v>
+      </c>
+      <c r="F3274" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3274" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3275" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B3275" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3275">
+        <v>20</v>
+      </c>
+      <c r="D3275" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3275">
+        <v>52</v>
+      </c>
+      <c r="F3275" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3275" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3276" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B3276" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3276">
+        <v>20</v>
+      </c>
+      <c r="D3276" s="10">
+        <v>1040</v>
+      </c>
+      <c r="E3276">
+        <v>52</v>
+      </c>
+      <c r="F3276" s="10" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G3276" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3277" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B3277" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3277">
+        <v>12</v>
+      </c>
+      <c r="D3277">
+        <v>480</v>
+      </c>
+      <c r="E3277">
+        <v>40</v>
+      </c>
+      <c r="F3277" s="10" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G3277" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3278" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B3278" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3278">
+        <v>12</v>
+      </c>
+      <c r="D3278">
+        <v>480</v>
+      </c>
+      <c r="E3278">
+        <v>40</v>
+      </c>
+      <c r="F3278" s="10" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G3278" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3279" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B3279" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3279">
+        <v>60</v>
+      </c>
+      <c r="D3279">
+        <v>1800</v>
+      </c>
+      <c r="E3279">
+        <f>+D3279/C3279</f>
+        <v>30</v>
+      </c>
+      <c r="F3279" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3279" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3280" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B3280" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3280">
+        <v>60</v>
+      </c>
+      <c r="D3280">
+        <v>1200</v>
+      </c>
+      <c r="E3280">
+        <f t="shared" ref="E3280:E3293" si="2">+D3280/C3280</f>
+        <v>20</v>
+      </c>
+      <c r="F3280" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3280" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3281" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B3281" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3281">
+        <v>40</v>
+      </c>
+      <c r="D3281">
+        <v>960</v>
+      </c>
+      <c r="E3281">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3281" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3281" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3282" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B3282" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3282">
+        <v>40</v>
+      </c>
+      <c r="D3282">
+        <v>960</v>
+      </c>
+      <c r="E3282">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3282" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3282" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3283" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B3283" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3283">
+        <v>60</v>
+      </c>
+      <c r="D3283">
+        <v>1800</v>
+      </c>
+      <c r="E3283">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F3283" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3283" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3284" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B3284" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3284">
+        <v>60</v>
+      </c>
+      <c r="D3284">
+        <v>1200</v>
+      </c>
+      <c r="E3284">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F3284" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3284" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3285" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B3285" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3285">
+        <v>40</v>
+      </c>
+      <c r="D3285">
+        <v>960</v>
+      </c>
+      <c r="E3285">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3285" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3285" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3286" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B3286" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3286">
+        <v>40</v>
+      </c>
+      <c r="D3286">
+        <v>960</v>
+      </c>
+      <c r="E3286">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3286" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3286" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3287" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B3287" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3287">
+        <v>60</v>
+      </c>
+      <c r="D3287">
+        <v>1200</v>
+      </c>
+      <c r="E3287">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F3287" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3287" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3288" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B3288" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3288">
+        <v>40</v>
+      </c>
+      <c r="D3288">
+        <v>960</v>
+      </c>
+      <c r="E3288">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3288" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3288" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3289" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B3289" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3289">
+        <v>40</v>
+      </c>
+      <c r="D3289">
+        <v>960</v>
+      </c>
+      <c r="E3289">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3289" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3289" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3290" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B3290" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3290">
+        <v>60</v>
+      </c>
+      <c r="D3290">
+        <v>1800</v>
+      </c>
+      <c r="E3290">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F3290" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3290" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3291" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B3291" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3291">
+        <v>40</v>
+      </c>
+      <c r="D3291">
+        <v>960</v>
+      </c>
+      <c r="E3291">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3291" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3291" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3292" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B3292" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3292">
+        <v>40</v>
+      </c>
+      <c r="D3292">
+        <v>960</v>
+      </c>
+      <c r="E3292">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3292" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3292" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3293" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B3293" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3293">
+        <v>20</v>
+      </c>
+      <c r="D3293">
+        <f>20*40</f>
+        <v>800</v>
+      </c>
+      <c r="E3293">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F3293" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3293" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3294" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B3294" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3294">
+        <v>20</v>
+      </c>
+      <c r="D3294">
+        <f>20*40</f>
+        <v>800</v>
+      </c>
+      <c r="E3294">
+        <f t="shared" ref="E3294" si="3">+D3294/C3294</f>
+        <v>40</v>
+      </c>
+      <c r="F3294" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3294" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3295" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B3295" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3295">
+        <v>20</v>
+      </c>
+      <c r="D3295">
+        <f t="shared" ref="D3295:D3296" si="4">20*40</f>
+        <v>800</v>
+      </c>
+      <c r="E3295">
+        <f t="shared" ref="E3295:E3298" si="5">+D3295/C3295</f>
+        <v>40</v>
+      </c>
+      <c r="F3295" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3295" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3296" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B3296" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3296">
+        <v>20</v>
+      </c>
+      <c r="D3296">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="E3296">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="F3296" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3296" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3297" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B3297" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3297">
+        <v>20</v>
+      </c>
+      <c r="D3297">
+        <v>1040</v>
+      </c>
+      <c r="E3297">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F3297" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3297" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3298" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B3298" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3298">
+        <v>20</v>
+      </c>
+      <c r="D3298">
+        <v>1040</v>
+      </c>
+      <c r="E3298">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F3298" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3298" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3299" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B3299" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C3299">
+        <v>20</v>
+      </c>
+      <c r="D3299">
+        <v>1040</v>
+      </c>
+      <c r="E3299">
+        <f t="shared" ref="E3299" si="6">+D3299/C3299</f>
+        <v>52</v>
+      </c>
+      <c r="F3299" s="10" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G3299" s="10" t="s">
         <v>3255</v>
       </c>
     </row>
@@ -68501,7 +70074,7 @@
   <conditionalFormatting sqref="A3231:A3232">
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3188:A3192 F3188:F3240">
+  <conditionalFormatting sqref="A3188:A3192 F3188:F3299">
     <cfRule type="duplicateValues" dxfId="2" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3234:A3235">
